--- a/OrageneSaliva/DB and Documents/OrageneSaliva.xlsx
+++ b/OrageneSaliva/DB and Documents/OrageneSaliva.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Questions" sheetId="2" r:id="rId1"/>
@@ -1777,8 +1777,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:V75"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AC1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="AR3" sqref="AR3"/>
+    <sheetView topLeftCell="A9" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="H15" sqref="H15:H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
@@ -2324,7 +2324,7 @@
         <v>89</v>
       </c>
       <c r="H15" s="21" t="s">
-        <v>54</v>
+        <v>39</v>
       </c>
       <c r="R15" s="15" t="s">
         <v>32</v>
@@ -2338,7 +2338,7 @@
       <c r="U15" s="15"/>
       <c r="V15" s="15" t="str">
         <f t="shared" si="0"/>
-        <v>insert into tblQuestion (SLNo, Qvar,Formname, Tablename, Qdescbng,Qdesceng,QType ,Qnext1,Qnext2, Qnext3, Qnext4, Qchoice1eng,Qchoice2eng,Qchoice3eng,Qchoice1Bng,Qchoice2Bng,Qchoice3Bng,Qrange1,Qrange2,DataType) values ('14', 'q13','frmsinglechoice', 'tblMainQues','','13.Why Was Oragene Saliva Sample Not Fully Collected?','','q14','','', '','','','','','','',NULL,NULL,'nvarchar');</v>
+        <v>insert into tblQuestion (SLNo, Qvar,Formname, Tablename, Qdescbng,Qdesceng,QType ,Qnext1,Qnext2, Qnext3, Qnext4, Qchoice1eng,Qchoice2eng,Qchoice3eng,Qchoice1Bng,Qchoice2Bng,Qchoice3Bng,Qrange1,Qrange2,DataType) values ('14', 'q13','frmsinglechoice', 'tblMainQues','','13.Why Was Oragene Saliva Sample Not Fully Collected?','','END','','', '','','','','','','',NULL,NULL,'nvarchar');</v>
       </c>
     </row>
     <row r="16" spans="1:22">
@@ -2358,7 +2358,7 @@
         <v>94</v>
       </c>
       <c r="H16" s="21" t="s">
-        <v>54</v>
+        <v>39</v>
       </c>
       <c r="R16" s="15" t="s">
         <v>32</v>
@@ -2372,7 +2372,7 @@
       <c r="U16" s="15"/>
       <c r="V16" s="15" t="str">
         <f t="shared" si="0"/>
-        <v>insert into tblQuestion (SLNo, Qvar,Formname, Tablename, Qdescbng,Qdesceng,QType ,Qnext1,Qnext2, Qnext3, Qnext4, Qchoice1eng,Qchoice2eng,Qchoice3eng,Qchoice1Bng,Qchoice2Bng,Qchoice3Bng,Qrange1,Qrange2,DataType) values ('15', 'q13Other','frmtext', 'tblMainQues','','13.Other:Specify','','q14','','', '','','','','','','',NULL,NULL,'nvarchar');</v>
+        <v>insert into tblQuestion (SLNo, Qvar,Formname, Tablename, Qdescbng,Qdesceng,QType ,Qnext1,Qnext2, Qnext3, Qnext4, Qchoice1eng,Qchoice2eng,Qchoice3eng,Qchoice1Bng,Qchoice2Bng,Qchoice3Bng,Qrange1,Qrange2,DataType) values ('15', 'q13Other','frmtext', 'tblMainQues','','13.Other:Specify','','END','','', '','','','','','','',NULL,NULL,'nvarchar');</v>
       </c>
     </row>
     <row r="17" spans="1:22">
@@ -2988,8 +2988,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G1306"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G2" sqref="G2:G20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
@@ -3231,11 +3231,11 @@
         <v>1</v>
       </c>
       <c r="F12" s="15" t="s">
-        <v>54</v>
+        <v>39</v>
       </c>
       <c r="G12" s="15" t="str">
         <f t="shared" si="0"/>
-        <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('11','q12', '1.All','','1','q14');</v>
+        <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('11','q12', '1.All','','1','END');</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="15">

--- a/OrageneSaliva/DB and Documents/OrageneSaliva.xlsx
+++ b/OrageneSaliva/DB and Documents/OrageneSaliva.xlsx
@@ -1777,8 +1777,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:V75"/>
   <sheetViews>
-    <sheetView topLeftCell="A9" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="H15" sqref="H15:H16"/>
+    <sheetView topLeftCell="Q1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="V2" sqref="V2:V19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
@@ -2324,7 +2324,7 @@
         <v>89</v>
       </c>
       <c r="H15" s="21" t="s">
-        <v>39</v>
+        <v>54</v>
       </c>
       <c r="R15" s="15" t="s">
         <v>32</v>
@@ -2338,7 +2338,7 @@
       <c r="U15" s="15"/>
       <c r="V15" s="15" t="str">
         <f t="shared" si="0"/>
-        <v>insert into tblQuestion (SLNo, Qvar,Formname, Tablename, Qdescbng,Qdesceng,QType ,Qnext1,Qnext2, Qnext3, Qnext4, Qchoice1eng,Qchoice2eng,Qchoice3eng,Qchoice1Bng,Qchoice2Bng,Qchoice3Bng,Qrange1,Qrange2,DataType) values ('14', 'q13','frmsinglechoice', 'tblMainQues','','13.Why Was Oragene Saliva Sample Not Fully Collected?','','END','','', '','','','','','','',NULL,NULL,'nvarchar');</v>
+        <v>insert into tblQuestion (SLNo, Qvar,Formname, Tablename, Qdescbng,Qdesceng,QType ,Qnext1,Qnext2, Qnext3, Qnext4, Qchoice1eng,Qchoice2eng,Qchoice3eng,Qchoice1Bng,Qchoice2Bng,Qchoice3Bng,Qrange1,Qrange2,DataType) values ('14', 'q13','frmsinglechoice', 'tblMainQues','','13.Why Was Oragene Saliva Sample Not Fully Collected?','','q14','','', '','','','','','','',NULL,NULL,'nvarchar');</v>
       </c>
     </row>
     <row r="16" spans="1:22">
@@ -2358,7 +2358,7 @@
         <v>94</v>
       </c>
       <c r="H16" s="21" t="s">
-        <v>39</v>
+        <v>54</v>
       </c>
       <c r="R16" s="15" t="s">
         <v>32</v>
@@ -2372,7 +2372,7 @@
       <c r="U16" s="15"/>
       <c r="V16" s="15" t="str">
         <f t="shared" si="0"/>
-        <v>insert into tblQuestion (SLNo, Qvar,Formname, Tablename, Qdescbng,Qdesceng,QType ,Qnext1,Qnext2, Qnext3, Qnext4, Qchoice1eng,Qchoice2eng,Qchoice3eng,Qchoice1Bng,Qchoice2Bng,Qchoice3Bng,Qrange1,Qrange2,DataType) values ('15', 'q13Other','frmtext', 'tblMainQues','','13.Other:Specify','','END','','', '','','','','','','',NULL,NULL,'nvarchar');</v>
+        <v>insert into tblQuestion (SLNo, Qvar,Formname, Tablename, Qdescbng,Qdesceng,QType ,Qnext1,Qnext2, Qnext3, Qnext4, Qchoice1eng,Qchoice2eng,Qchoice3eng,Qchoice1Bng,Qchoice2Bng,Qchoice3Bng,Qrange1,Qrange2,DataType) values ('15', 'q13Other','frmtext', 'tblMainQues','','13.Other:Specify','','q14','','', '','','','','','','',NULL,NULL,'nvarchar');</v>
       </c>
     </row>
     <row r="17" spans="1:22">
@@ -2988,8 +2988,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G1306"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="G2" sqref="G2:G20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
@@ -3231,11 +3231,11 @@
         <v>1</v>
       </c>
       <c r="F12" s="15" t="s">
-        <v>39</v>
+        <v>54</v>
       </c>
       <c r="G12" s="15" t="str">
         <f t="shared" si="0"/>
-        <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('11','q12', '1.All','','1','END');</v>
+        <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('11','q12', '1.All','','1','q14');</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="15">
